--- a/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
@@ -665,17 +665,17 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.01422118727002307</v>
+        <v>-0.008756912782588928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.365973052626039</v>
+        <v>-1.577220853461539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.076025659920258</v>
+        <v>-4.165578339457135</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.4125802725547274</v>
+        <v>-0.4584467991289967</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
@@ -690,22 +690,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.246868347397321</v>
+        <v>1.063545067594176</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.813621968887244</v>
+        <v>2.830914677252275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7373962489489529</v>
+        <v>0.731217081785929</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.83975359802636</v>
+        <v>2.883003970327139</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>14.03066764578603</v>
+      </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>2.991598121427789</v>
+        <v>2.620168473168099</v>
       </c>
     </row>
     <row r="7">
@@ -752,26 +754,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5910600064531351</v>
+        <v>-0.6174009780998392</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.072618764776689</v>
+        <v>-1.975288606913795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7906408018660618</v>
+        <v>-0.7806969536781574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1982745192699698</v>
+        <v>0.1250065035433471</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8741173998618262</v>
+        <v>-0.8565310336327137</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7148497809057665</v>
+        <v>-0.702435285749533</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2938200086534833</v>
+        <v>-0.2414153153677518</v>
       </c>
     </row>
     <row r="9">
@@ -782,27 +784,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.836865502125903</v>
+        <v>0.8596644138250551</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6629589113118517</v>
+        <v>0.696373915630098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.363338692719648</v>
+        <v>1.335001528520129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.936138286563818</v>
+        <v>4.045118908714581</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.955331201199346</v>
+        <v>0.9961009568626936</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.407714937880789</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>13.37622410926515</v>
-      </c>
+        <v>4.266660484601723</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.012680575136593</v>
+        <v>-1.087820897693672</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09138910979461014</v>
+        <v>0.2099054501721962</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.01038602838242451</v>
+        <v>0.01269889993241602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3252446178122882</v>
+        <v>0.252632140344841</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7232676921739338</v>
+        <v>-0.7339748692540441</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.105676588260098</v>
+        <v>-0.03416566021968167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3336260303444032</v>
+        <v>-0.4349835762207911</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.08928067722561417</v>
+        <v>0.0278099704439456</v>
       </c>
     </row>
     <row r="12">
@@ -880,28 +880,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.337212420026445</v>
+        <v>1.220920629743937</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.37138569830808</v>
+        <v>3.519868599079125</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.886471183186108</v>
+        <v>1.974238191524937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.306216304753143</v>
+        <v>3.306378632983013</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.45921429602913</v>
+        <v>3.977044644504887</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.801990705988398</v>
+        <v>4.797611033466335</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>15.50937653608602</v>
+        <v>12.71307133452061</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.444372949708009</v>
+        <v>4.26399828156449</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>0.3174349836470074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05847759862863712</v>
+        <v>0.05847759862863781</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1340389669026176</v>
@@ -937,7 +937,7 @@
         <v>0.2875443025959213</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01985062562247264</v>
+        <v>0.01985062562247288</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.382363100587808</v>
+        <v>-1.568359686908833</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.339429536824612</v>
+        <v>-1.398535406354193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.085930215510045</v>
+        <v>-1.004836247909095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.57498539211229</v>
+        <v>-1.697580677246179</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5925782297543092</v>
+        <v>-0.6347618633452651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4694494055764538</v>
+        <v>-0.4707544088496915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6658088515560898</v>
+        <v>-0.6202539285271109</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4005724586115774</v>
+        <v>-0.4158776083703098</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.901614565485803</v>
+        <v>1.811913365929855</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.25463307949753</v>
+        <v>2.217794039646803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.454339000058118</v>
+        <v>1.56963285440793</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.643465164278977</v>
+        <v>1.615198257217002</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.397739234118264</v>
+        <v>1.854184103850607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.017858009232367</v>
+        <v>2.135179256517542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.90065475156777</v>
+        <v>4.085543488175974</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.882442730824094</v>
+        <v>0.8247963753653288</v>
       </c>
     </row>
     <row r="16">
@@ -1025,7 +1025,7 @@
         <v>0.8956810618537531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.3996187760011146</v>
+        <v>-0.3996187760011139</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>2.108955361015514</v>
@@ -1037,7 +1037,7 @@
         <v>0.5924170037806019</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1525652301804621</v>
+        <v>-0.1525652301804619</v>
       </c>
     </row>
     <row r="17">
@@ -1048,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.04394706957615675</v>
+        <v>-0.01336246867344746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.41092234889945</v>
+        <v>-2.259781617413391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8234043956889823</v>
+        <v>-0.9750873769374329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.224900295725961</v>
+        <v>-1.977948079158812</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7097694653938886</v>
+        <v>-0.6517530143205512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6611713473438687</v>
+        <v>-0.6446666422971763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5886383998422525</v>
+        <v>-0.4876096767783622</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5671131329381919</v>
+        <v>-0.5488116133843736</v>
       </c>
     </row>
     <row r="18">
@@ -1080,26 +1080,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.773298768672086</v>
+        <v>2.894075937177669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.881869563154188</v>
+        <v>1.946883735066379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.20462556285081</v>
+        <v>2.936982990531691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.038787691027877</v>
+        <v>1.035925784914919</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1.531221944387587</v>
+        <v>1.619292346070781</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.687907671950999</v>
+        <v>3.671956956614562</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6507877823943974</v>
+        <v>0.633768051929707</v>
       </c>
     </row>
     <row r="19">
@@ -1146,28 +1146,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.657940275670141</v>
+        <v>-1.463804775202686</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.504905583196065</v>
+        <v>-4.639460343133613</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.171875493921396</v>
+        <v>-1.222574467683168</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.279680630535108</v>
+        <v>-1.393877053027445</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8608677801157844</v>
+        <v>-0.789969835937233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.947206008302143</v>
+        <v>-1</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5296848009107135</v>
+        <v>-0.5391847125328602</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3530417265298529</v>
+        <v>-0.3602174028729734</v>
       </c>
     </row>
     <row r="21">
@@ -1178,28 +1178,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.758133505604869</v>
+        <v>1.841327913482523</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1667391671487707</v>
+        <v>0.1773255572351643</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.099359572270584</v>
+        <v>3.140253723758388</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.513695492574444</v>
+        <v>2.416310429537763</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.839838355653362</v>
+        <v>4.737098669172116</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5779852441243759</v>
+        <v>0.3713727811772461</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.120357037140489</v>
+        <v>3.88351818755012</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.440574512543162</v>
+        <v>1.315188680791209</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>1.871578684608027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.541340775478312</v>
+        <v>1.54134077547831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3391025170465615</v>
@@ -1235,7 +1235,7 @@
         <v>2.932515277815247</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4970387574275036</v>
+        <v>0.497038757427503</v>
       </c>
     </row>
     <row r="23">
@@ -1246,28 +1246,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.924791606413366</v>
+        <v>-4.46654771386518</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.306216634292863</v>
+        <v>-4.214743118866948</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2450901312092765</v>
+        <v>0.02537947626242846</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7389709794917091</v>
+        <v>-0.9207701451719251</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8637710652660773</v>
+        <v>-0.8279883799460986</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8033438398551332</v>
+        <v>-0.7410285174739605</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3166847232837617</v>
+        <v>-0.2786963025171731</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1880125135260325</v>
+        <v>-0.213838238073936</v>
       </c>
     </row>
     <row r="24">
@@ -1278,26 +1278,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.29070873101691</v>
+        <v>1.45429983452331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.630528909770926</v>
+        <v>1.771233946008587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.122912023270044</v>
+        <v>4.02379693568004</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.619492114105148</v>
+        <v>3.669082999316698</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8608460907126485</v>
+        <v>1.241004192067429</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.077663747541463</v>
+        <v>1.304217982969603</v>
       </c>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>1.881745486843391</v>
+        <v>1.953012891190229</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>0.7197047690679905</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3307697597021627</v>
+        <v>0.3307697597021628</v>
       </c>
     </row>
     <row r="26">
@@ -1344,28 +1344,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.230306716954498</v>
+        <v>-0.2143586718588527</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.5527224269434304</v>
+        <v>-0.4393699511170699</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1210868426539431</v>
+        <v>0.1400049259964181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.05568166508225453</v>
+        <v>0.03726080414364863</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2268405880230958</v>
+        <v>-0.1869246622831103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2432882781696188</v>
+        <v>-0.2084376417479641</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06856731246161446</v>
+        <v>0.09684218182360603</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01823395917887952</v>
+        <v>0.01438110337602742</v>
       </c>
     </row>
     <row r="27">
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7948929925822437</v>
+        <v>0.7535688539032906</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9173260542850902</v>
+        <v>0.9185822683438597</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.280662567690044</v>
+        <v>1.214946541113324</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.41872168631242</v>
+        <v>1.46664471705703</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.160531774282355</v>
+        <v>1.130946403396456</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.597450532323816</v>
+        <v>0.627781821567273</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.835380001201342</v>
+        <v>1.652417011264639</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7340616804251606</v>
+        <v>0.790939169379569</v>
       </c>
     </row>
     <row r="28">
